--- a/code/testCases/csae_document.xlsx
+++ b/code/testCases/csae_document.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="5355"/>
+    <workbookView windowWidth="19890" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="凭证录入用例" sheetId="3" r:id="rId1"/>
     <sheet name="新增凭证用例" sheetId="1" r:id="rId2"/>
     <sheet name="用例信息" sheetId="2" r:id="rId3"/>
     <sheet name="sql" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="期初用例" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="58">
   <si>
     <t>tax_no</t>
   </si>
@@ -92,9 +92,6 @@
     <t>应交税费_应交增值税_销项税额</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>发放工资</t>
   </si>
   <si>
@@ -161,7 +158,7 @@
     <t>taxidCode000000002</t>
   </si>
   <si>
-    <t>lxhw</t>
+    <t>shyuan</t>
   </si>
   <si>
     <t>pre</t>
@@ -184,88 +181,22 @@
 WHERE d.`id`=dd.`document_id` AND d.`financial_year`=2019 AND d.`financial_month`=8 AND d.`file_management_id` =i.`file_management_id` AND d.`file_management_id`=f.id;</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>10000.00</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>600104</t>
-  </si>
-  <si>
-    <t>9433.96</t>
-  </si>
-  <si>
-    <t>22210102</t>
-  </si>
-  <si>
-    <t>566.04</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1260.50</t>
-  </si>
-  <si>
-    <t>1189.15</t>
-  </si>
-  <si>
-    <t>71.35</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>221101</t>
-  </si>
-  <si>
-    <t>32500.00</t>
-  </si>
-  <si>
-    <t>100101</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>10020101</t>
-  </si>
-  <si>
-    <t>41260.50</t>
+    <t>ACCOUNT_CODE</t>
+  </si>
+  <si>
+    <t>ACCOUNT_NAME</t>
+  </si>
+  <si>
+    <t>ACCOUNT_FEATURE_CD</t>
+  </si>
+  <si>
+    <t>1122-1001</t>
+  </si>
+  <si>
+    <t>工商银行周浦支行00096775</t>
+  </si>
+  <si>
+    <t>122101-1002</t>
   </si>
 </sst>
 </file>
@@ -273,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -285,12 +216,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF6A8759"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -306,14 +231,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -322,7 +245,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,9 +288,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,29 +314,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,8 +333,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,38 +373,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,187 +390,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,11 +586,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,6 +641,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -714,39 +673,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,10 +689,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,147 +701,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -918,6 +840,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1249,23 +1177,23 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="6.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="25.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="4" customWidth="1"/>
+    <col min="4" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="6.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1319,10 +1247,10 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:16">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2">
@@ -1369,10 +1297,10 @@
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:16">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3">
@@ -1815,7 +1743,7 @@
         <v>1001</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2091,16 +2019,16 @@
         <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>221101</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
@@ -2141,16 +2069,16 @@
         <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18">
         <v>100101</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>20</v>
@@ -2191,16 +2119,16 @@
         <v>64</v>
       </c>
       <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
         <v>28</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
       </c>
       <c r="J19">
         <v>10020101</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
         <v>20</v>
@@ -2241,10 +2169,10 @@
         <v>64</v>
       </c>
       <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
         <v>28</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
       </c>
       <c r="J20">
         <v>1122</v>
@@ -2299,10 +2227,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2331,22 +2259,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>6403</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>35</v>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -2363,22 +2291,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>222107</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>35</v>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="G3">
         <v>23.36</v>
@@ -2395,22 +2323,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>100101</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>37</v>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -2427,22 +2355,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>122101</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>38</v>
+      <c r="F5" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="G5">
         <v>100000</v>
@@ -2454,7 +2382,7 @@
         <v>1002</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2468,8 +2396,8 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -2479,53 +2407,54 @@
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:7">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" s="3" customFormat="1" ht="29" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="29" customHeight="1" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="6">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="6">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F2" s="6">
-        <v>12344321</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2556,18 +2485,18 @@
   <sheetData>
     <row r="1" ht="81" customHeight="1" spans="1:2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" ht="108" customHeight="1" spans="1:2">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2579,962 +2508,61 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>10020101</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3">
-        <v>1122</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>21</v>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/code/testCases/csae_document.xlsx
+++ b/code/testCases/csae_document.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="凭证录入用例" sheetId="3" r:id="rId1"/>
@@ -204,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -237,29 +237,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,10 +254,40 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,14 +306,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,17 +328,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,29 +366,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -390,187 +390,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,9 +586,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +606,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,8 +652,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,28 +673,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,10 +689,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,133 +701,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2387,6 +2387,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2397,13 +2398,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>

--- a/code/testCases/csae_document.xlsx
+++ b/code/testCases/csae_document.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="19785" windowHeight="9930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="凭证录入用例" sheetId="3" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>lxhw_013</t>
   </si>
   <si>
-    <t>nanChang</t>
+    <t>yunNan</t>
   </si>
   <si>
     <t>上海佳义物流有限公司</t>
@@ -298,10 +298,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -329,6 +329,81 @@
       <color rgb="FF222222"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -339,13 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -354,30 +422,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,71 +446,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,13 +461,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -484,187 +484,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,15 +675,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,17 +693,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,6 +726,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -760,21 +775,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,133 +795,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
